--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -40,21 +40,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -79,100 +73,106 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>well</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7241379310344828</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7123287671232876</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.8928571428571429</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5833333333333334</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5675675675675675</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5588235294117647</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4391534391534391</v>
+        <v>0.3565891472868217</v>
       </c>
       <c r="C9">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="D9">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>106</v>
+        <v>332</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8302872062663186</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L9">
-        <v>318</v>
+        <v>87</v>
       </c>
       <c r="M9">
-        <v>318</v>
+        <v>87</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,7 +949,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3725490196078431</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -967,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>311</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>311</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3585271317829458</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C11">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>331</v>
+        <v>124</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1049,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2533333333333334</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1067,119 +1067,71 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>56</v>
+        <v>232</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L12">
+        <v>65</v>
+      </c>
+      <c r="M12">
+        <v>65</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0.7872340425531915</v>
+      </c>
+      <c r="L13">
+        <v>37</v>
+      </c>
+      <c r="M13">
+        <v>37</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K12">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L12">
-        <v>46</v>
-      </c>
-      <c r="M12">
-        <v>46</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2281879194630873</v>
-      </c>
-      <c r="C13">
-        <v>34</v>
-      </c>
-      <c r="D13">
-        <v>34</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>115</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.7926829268292683</v>
-      </c>
-      <c r="L13">
-        <v>65</v>
-      </c>
-      <c r="M13">
-        <v>65</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.07936507936507936</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>232</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1191,21 +1143,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7734375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1217,21 +1169,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.76875</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1243,21 +1195,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7535211267605634</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L17">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1269,21 +1221,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18">
+        <v>0.75</v>
+      </c>
+      <c r="L18">
         <v>36</v>
       </c>
-      <c r="K18">
-        <v>0.7301587301587301</v>
-      </c>
-      <c r="L18">
-        <v>46</v>
-      </c>
       <c r="M18">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1295,21 +1247,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.7272727272727273</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1321,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1347,21 +1299,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6976744186046512</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1373,21 +1325,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.68</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1399,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.65</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1425,21 +1377,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.6411764705882353</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L24">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M24">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1451,21 +1403,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.606694560669456</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L25">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1477,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>94</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5932203389830508</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1503,21 +1455,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1529,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.5531914893617021</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L28">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1555,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5285714285714286</v>
+        <v>0.575</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1581,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.5230769230769231</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1607,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.4382022471910113</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1633,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>50</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.3424657534246575</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1659,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.3076923076923077</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1685,33 +1637,85 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>0.4509803921568628</v>
+      </c>
+      <c r="L34">
+        <v>23</v>
+      </c>
+      <c r="M34">
+        <v>23</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K34">
-        <v>0.005961719485409476</v>
-      </c>
-      <c r="L34">
-        <v>19</v>
-      </c>
-      <c r="M34">
-        <v>33</v>
-      </c>
-      <c r="N34">
-        <v>0.58</v>
-      </c>
-      <c r="O34">
-        <v>0.42</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>3168</v>
+      <c r="K36">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="L36">
+        <v>22</v>
+      </c>
+      <c r="M36">
+        <v>22</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
